--- a/Energy_Data_Dictionary.xlsx
+++ b/Energy_Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sofia/Desktop/Education/UNIPD/Fall 2023/Business Economic and Financial Data/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\GitHub\business_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC7F93B-46DA-9D4B-84C4-8DC563478B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE2AC30-9A70-4B1D-8B7C-875B4CEFFC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="500" windowWidth="27480" windowHeight="16940" xr2:uid="{0CF4C3A6-E06D-554F-B889-D0605F8E8A88}"/>
+    <workbookView xWindow="10440" yWindow="840" windowWidth="21640" windowHeight="11690" xr2:uid="{0CF4C3A6-E06D-554F-B889-D0605F8E8A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
   <si>
     <t xml:space="preserve">DATE                                            </t>
   </si>
@@ -296,6 +296,60 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>tavg</t>
+  </si>
+  <si>
+    <t>tmin</t>
+  </si>
+  <si>
+    <t>tmax</t>
+  </si>
+  <si>
+    <t>prcp</t>
+  </si>
+  <si>
+    <t>wspd</t>
+  </si>
+  <si>
+    <t>Float64</t>
+  </si>
+  <si>
+    <t>pres</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>hPa</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Average air temperature</t>
+  </si>
+  <si>
+    <t>Minimum air temperature</t>
+  </si>
+  <si>
+    <t>Maximum air temperature</t>
+  </si>
+  <si>
+    <t>Precipitation total</t>
+  </si>
+  <si>
+    <t>Wind speed</t>
+  </si>
+  <si>
+    <t>Average sea-level air pressure</t>
   </si>
 </sst>
 </file>
@@ -647,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABD4BD-3672-7346-AAAF-B604F2036DFC}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
@@ -662,7 +716,7 @@
     <col min="6" max="6" width="64.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -682,7 +736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -702,7 +756,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -722,7 +776,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -742,7 +796,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -762,7 +816,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -782,7 +836,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -802,7 +856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -822,7 +876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -842,7 +896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -862,7 +916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -882,7 +936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -902,7 +956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -922,7 +976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -942,7 +996,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -962,7 +1016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -982,7 +1036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1002,7 +1056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1022,7 +1076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1062,7 +1116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1082,7 +1136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1102,7 +1156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1122,7 +1176,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1142,7 +1196,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1162,7 +1216,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1182,7 +1236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1202,7 +1256,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1222,7 +1276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1242,7 +1296,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1262,7 +1316,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1282,7 +1336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1302,7 +1356,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1322,7 +1376,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1340,6 +1394,126 @@
       </c>
       <c r="F34" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Energy_Data_Dictionary.xlsx
+++ b/Energy_Data_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\GitHub\business_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE2AC30-9A70-4B1D-8B7C-875B4CEFFC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9E26B4-D4A5-4368-83D0-C7F1FDBA0DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="840" windowWidth="21640" windowHeight="11690" xr2:uid="{0CF4C3A6-E06D-554F-B889-D0605F8E8A88}"/>
+    <workbookView xWindow="7030" yWindow="870" windowWidth="21640" windowHeight="11690" xr2:uid="{0CF4C3A6-E06D-554F-B889-D0605F8E8A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Energy_Data_Dictionary.xlsx
+++ b/Energy_Data_Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Documents\GitHub\business\business_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\GitHub\business_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175639F2-B8E2-4333-A80F-CE7D695681C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A047B91C-4B98-4302-8D23-A5692E558755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{0CF4C3A6-E06D-554F-B889-D0605F8E8A88}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="22500" windowHeight="18570" xr2:uid="{0CF4C3A6-E06D-554F-B889-D0605F8E8A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Features description" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="163">
   <si>
     <t xml:space="preserve">DATE                                            </t>
   </si>
@@ -583,12 +583,78 @@
   <si>
     <t>e.g. 10 cent/kwh = 100 dollars/MWh</t>
   </si>
+  <si>
+    <t>Heat and Power (commercial)</t>
+  </si>
+  <si>
+    <t>Heat and power (Power Plants)</t>
+  </si>
+  <si>
+    <t>Electric Generators</t>
+  </si>
+  <si>
+    <t>ElectricGenerators from IPP</t>
+  </si>
+  <si>
+    <t>Energy Producers</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Solar, Thermal, Photovoltaic</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Weather data</t>
+  </si>
+  <si>
+    <t>avg temperature</t>
+  </si>
+  <si>
+    <t>min temperature</t>
+  </si>
+  <si>
+    <t>max temperature</t>
+  </si>
+  <si>
+    <t>precipitations</t>
+  </si>
+  <si>
+    <t>wind speed</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>MWh+D3:D4D3:D40</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Energy data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -653,8 +719,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,8 +776,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -727,11 +817,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -751,18 +866,38 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -776,6 +911,1917 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Petroleum Consumption</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-24AF-4100-BB58-9CF423DF1D79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-24AF-4100-BB58-9CF423DF1D79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-24AF-4100-BB58-9CF423DF1D79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-24AF-4100-BB58-9CF423DF1D79}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17088158497684061"/>
+                  <c:y val="-9.4197137258831495E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-24AF-4100-BB58-9CF423DF1D79}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12090678182323619"/>
+                  <c:y val="-2.8259467629659824E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-24AF-4100-BB58-9CF423DF1D79}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10639796800444788"/>
+                  <c:y val="-8.9916487912553841E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-24AF-4100-BB58-9CF423DF1D79}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7078079759125762E-2"/>
+                  <c:y val="-0.14129733814829892"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-24AF-4100-BB58-9CF423DF1D79}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Features description'!$A$80:$D$80</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Commercial</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Residential</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Industrial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Features description'!$A$81:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24AF-4100-BB58-9CF423DF1D79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1230313</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>160337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2325688</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>125412</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D503D65E-BF74-034A-72C4-0C8E2DD48F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2091530</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>1587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>182563</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1ACB032-0F49-258C-0813-23C1EE90CBBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1075,23 +3121,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABD4BD-3672-7346-AAAF-B604F2036DFC}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="99" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1111,7 +3158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +3178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="69">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1142,7 +3189,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>50</v>
@@ -1150,11 +3197,11 @@
       <c r="F3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1174,7 +3221,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +3241,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1217,7 +3264,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +3284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1257,7 +3304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1277,7 +3324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +3344,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +3364,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1337,7 +3384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1357,7 +3404,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1376,11 +3423,11 @@
       <c r="F14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1400,7 +3447,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1420,7 +3467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1440,7 +3487,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1460,7 +3507,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,7 +3527,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1500,7 +3547,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1520,7 +3567,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1540,7 +3587,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1560,7 +3607,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1580,7 +3627,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1600,7 +3647,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1620,7 +3667,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1640,7 +3687,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1660,7 +3707,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1680,7 +3727,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1700,7 +3747,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1720,7 +3767,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1740,7 +3787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1760,7 +3807,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,7 +3827,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -1800,7 +3847,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -1820,7 +3867,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -1840,7 +3887,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>79</v>
       </c>
@@ -1860,7 +3907,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>82</v>
       </c>
@@ -1880,7 +3927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
@@ -1900,9 +3947,348 @@
         <v>87</v>
       </c>
     </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="17"/>
+      <c r="B44" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="17"/>
+      <c r="B45" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="17"/>
+      <c r="B46" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="14"/>
+      <c r="B65" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="14"/>
+      <c r="B72" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="B81" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="C81" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="21"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="21"/>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1914,36 +4300,36 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="47.875" customWidth="1"/>
+    <col min="2" max="2" width="27.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.08203125" customWidth="1"/>
+    <col min="4" max="4" width="47.83203125" customWidth="1"/>
     <col min="5" max="5" width="61" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="22.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>90</v>
       </c>
@@ -1961,7 +4347,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1979,7 +4365,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1997,7 +4383,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -2015,7 +4401,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="21" customHeight="1">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -2033,7 +4419,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="20.5" customHeight="1">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -2051,7 +4437,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -2069,7 +4455,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="20.5" customHeight="1">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -2087,7 +4473,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="22.5" customHeight="1">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -2105,7 +4491,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="18" customHeight="1">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -2123,7 +4509,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="17.5" customHeight="1">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -2141,17 +4527,17 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2159,7 +4545,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2167,7 +4553,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2175,25 +4561,25 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
         <v>90</v>
       </c>
@@ -2210,7 +4596,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="7">
         <v>1</v>
       </c>
@@ -2227,7 +4613,7 @@
         <v>58214</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="7">
         <v>2</v>
       </c>
@@ -2244,7 +4630,7 @@
         <v>51509</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="7">
         <v>3</v>
       </c>
@@ -2261,7 +4647,7 @@
         <v>16998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="7">
         <v>4</v>
       </c>
@@ -2278,7 +4664,7 @@
         <v>11268</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="7">
         <v>5</v>
       </c>
@@ -2295,7 +4681,7 @@
         <v>8776</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="7">
         <v>6</v>
       </c>
@@ -2312,7 +4698,7 @@
         <v>5323</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="7">
         <v>7</v>
       </c>
@@ -2329,7 +4715,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="7">
         <v>8</v>
       </c>
@@ -2346,7 +4732,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="7">
         <v>9</v>
       </c>
@@ -2363,7 +4749,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="7">
         <v>10</v>
       </c>
@@ -2380,14 +4766,14 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
